--- a/artfynd/A 60589-2025 artfynd.xlsx
+++ b/artfynd/A 60589-2025 artfynd.xlsx
@@ -800,7 +800,7 @@
         <v>130005860</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>130006116</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>130321939</v>
       </c>
       <c r="B26" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>130111348</v>
       </c>
       <c r="B27" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>130321917</v>
       </c>
       <c r="B28" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
